--- a/public/CMS.xlsx
+++ b/public/CMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B922F95F-AB42-3D4F-8497-C6471C5BCAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359E7508-BD56-1E44-AA73-EA8D35062234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>CÔNG TY TNHH TM DV CAO NGUYÊN XANH</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>#` BẢNG TÍNH CHI PHÍ HOA HỒNG MARKETING THÁNG ${reportMonth}.${reportYear}</t>
+  </si>
+  <si>
+    <t>## item.commission</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="0&quot; &quot;;\(0\)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -257,6 +260,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -325,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,6 +422,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScale="134" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1976,8 +1988,8 @@
       <c r="J12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>24</v>
+      <c r="K12" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>34</v>

--- a/public/CMS.xlsx
+++ b/public/CMS.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359E7508-BD56-1E44-AA73-EA8D35062234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25124C27-94BC-4131-8350-62E6CD98335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,6 +59,9 @@
     <t>#` TP HCM, ngày ${day} tháng ${month} năm ${year}</t>
   </si>
   <si>
+    <t>#` BẢNG TÍNH CHI PHÍ HOA HỒNG MARKETING THÁNG ${reportMonth}.${reportYear}</t>
+  </si>
+  <si>
     <t>Income</t>
   </si>
   <si>
@@ -112,16 +128,19 @@
     <t>## item.bankName</t>
   </si>
   <si>
+    <t>## item.pdpTraffic</t>
+  </si>
+  <si>
+    <t>## item.pdpTrafficPrice</t>
+  </si>
+  <si>
     <t>## item.productTraffic</t>
   </si>
   <si>
     <t>## item.productTrafficPrice</t>
   </si>
   <si>
-    <t>## item.pdpTraffic</t>
-  </si>
-  <si>
-    <t>## item.pdpTrafficPrice</t>
+    <t>## item.commission</t>
   </si>
   <si>
     <t>## item.tax</t>
@@ -136,28 +155,22 @@
     <t>Tổng Cộng</t>
   </si>
   <si>
+    <t>## totalPdpTraffic</t>
+  </si>
+  <si>
+    <t>## totalProductTraffic</t>
+  </si>
+  <si>
     <t>## totalCommission</t>
   </si>
   <si>
     <t>## totalTax</t>
   </si>
   <si>
+    <t>## totalIncomeAfterTax</t>
+  </si>
+  <si>
     <t>#! FINISH</t>
-  </si>
-  <si>
-    <t>## totalProductTraffic</t>
-  </si>
-  <si>
-    <t>## totalPdpTraffic</t>
-  </si>
-  <si>
-    <t>## totalIncomeAfterTax</t>
-  </si>
-  <si>
-    <t>#` BẢNG TÍNH CHI PHÍ HOA HỒNG MARKETING THÁNG ${reportMonth}.${reportYear}</t>
-  </si>
-  <si>
-    <t>## item.commission</t>
   </si>
 </sst>
 </file>
@@ -168,7 +181,7 @@
     <numFmt numFmtId="164" formatCode="0&quot; &quot;;\(0\)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -205,12 +218,6 @@
     <font>
       <sz val="10"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -334,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -361,9 +368,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -373,28 +377,19 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -402,15 +397,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,12 +418,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1618,34 +1628,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScale="134" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16" width="8.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="35.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="14.45" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2"/>
@@ -1653,23 +1663,23 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="14.45" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -1680,23 +1690,23 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
-    <row r="3" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="14.45" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1707,23 +1717,23 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
     </row>
-    <row r="4" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="14.45" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1731,22 +1741,22 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="14.45" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1763,13 +1773,13 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
     </row>
-    <row r="6" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1778,23 +1788,23 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1811,38 +1821,38 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1851,193 +1861,193 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="1:19" ht="69.95" customHeight="1">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="G10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="I10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="K10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="18" t="s">
         <v>20</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="12">
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11">
         <v>-1</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>-2</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>-3</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>-4</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>-5</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>-6</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>-7</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>-8</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>-9</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>-10</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>-11</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="15" t="s">
-        <v>23</v>
+      <c r="Q11" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:19" ht="40.5" customHeight="1">
+      <c r="A12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="I12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="11" t="s">
+      <c r="J12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="K12" s="29" t="s">
         <v>35</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="7"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="15" t="s">
-        <v>36</v>
+      <c r="Q12" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="14" t="s">
+    <row r="13" spans="1:19" ht="24" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="22" t="s">
+      <c r="L13" s="31" t="s">
         <v>43</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="14.1" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2054,11 +2064,11 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="14.1" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2075,8 +2085,8 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="16" t="s">
-        <v>40</v>
+      <c r="Q15" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/public/CMS.xlsx
+++ b/public/CMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25124C27-94BC-4131-8350-62E6CD98335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A96F00E-A0F3-4B18-9EAB-EBCDBB3E7CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>CÔNG TY TNHH TM DV CAO NGUYÊN XANH</t>
   </si>
@@ -59,7 +59,10 @@
     <t>#` TP HCM, ngày ${day} tháng ${month} năm ${year}</t>
   </si>
   <si>
-    <t>#` BẢNG TÍNH CHI PHÍ HOA HỒNG MARKETING THÁNG ${reportMonth}.${reportYear}</t>
+    <t>#` BẢNG TÍNH CHI PHÍ HOA HỒNG MARKETING THÁNG ${reportTime}</t>
+  </si>
+  <si>
+    <t>## totalIncome</t>
   </si>
   <si>
     <t>Income</t>
@@ -181,7 +184,7 @@
     <numFmt numFmtId="164" formatCode="0&quot; &quot;;\(0\)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -273,8 +276,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF404040"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,11 +400,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -418,23 +448,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1626,15 +1650,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
@@ -1663,13 +1687,13 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1690,13 +1714,13 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1717,13 +1741,13 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1741,12 +1765,12 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1788,13 +1812,13 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1828,21 +1852,21 @@
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1853,66 +1877,44 @@
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="13" t="s">
         <v>2</v>
       </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="69.95" customHeight="1">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1920,147 +1922,173 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:19" ht="69.95" customHeight="1">
+      <c r="A11" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="35" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="11">
-        <v>-1</v>
-      </c>
-      <c r="D11" s="12">
-        <v>-2</v>
-      </c>
-      <c r="E11" s="11">
-        <v>-3</v>
-      </c>
-      <c r="F11" s="12">
-        <v>-4</v>
-      </c>
-      <c r="G11" s="11">
-        <v>-5</v>
-      </c>
-      <c r="H11" s="12">
-        <v>-6</v>
-      </c>
-      <c r="I11" s="11">
-        <v>-7</v>
-      </c>
-      <c r="J11" s="12">
-        <v>-8</v>
-      </c>
-      <c r="K11" s="11">
-        <v>-9</v>
-      </c>
-      <c r="L11" s="12">
-        <v>-10</v>
-      </c>
-      <c r="M11" s="11">
-        <v>-11</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="40.5" customHeight="1">
-      <c r="A12" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>37</v>
+      <c r="C12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>-2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-3</v>
+      </c>
+      <c r="F12" s="12">
+        <v>-4</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-5</v>
+      </c>
+      <c r="H12" s="12">
+        <v>-6</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-7</v>
+      </c>
+      <c r="J12" s="12">
+        <v>-8</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-9</v>
+      </c>
+      <c r="L12" s="12">
+        <v>-10</v>
+      </c>
+      <c r="M12" s="11">
+        <v>-11</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="40.5" customHeight="1">
+      <c r="A13" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="24" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="13" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14.1" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+    <row r="14" spans="1:19" ht="24" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2085,14 +2113,35 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="14" t="s">
-        <v>45</v>
+      <c r="Q15" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="14.1" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="I1:M1"/>
